--- a/src/main/java/algestudiante/p32/P32_UO277876.xlsx
+++ b/src/main/java/algestudiante/p32/P32_UO277876.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infer\git\alg_AunonAndreaUO277876\src\main\java\algestudiante\p32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347230D6-4DCF-4D0F-93F1-8918978BD4B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD369EC-26F4-404F-BD1D-A33A9EBCE6E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10356" yWindow="1188" windowWidth="10764" windowHeight="9480" xr2:uid="{760BF4A0-4F21-48FC-9449-0A68ABD67C67}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>nVeces</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>n inversiones</t>
+  </si>
+  <si>
+    <t>Ranking1.txt</t>
   </si>
 </sst>
 </file>
@@ -245,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -267,6 +270,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -586,7 +592,7 @@
   <dimension ref="A2:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,7 +631,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="15">
         <v>14074466</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -637,7 +646,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E4">
+      <c r="E4" s="15">
         <v>56256142</v>
       </c>
       <c r="J4" s="8" t="s">
@@ -649,7 +658,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E5">
+      <c r="E5" s="15">
         <v>225312650</v>
       </c>
       <c r="N5" s="2">
@@ -657,7 +666,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E6">
+      <c r="E6" s="15">
         <v>903869574</v>
       </c>
       <c r="N6" s="2">
@@ -665,7 +674,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E7">
+      <c r="E7" s="15">
         <v>3613758061</v>
       </c>
       <c r="N7" s="3">
@@ -673,7 +682,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E8">
+      <c r="E8" s="15">
         <v>14444260441</v>
       </c>
       <c r="N8" s="2">
@@ -681,7 +690,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E9">
+      <c r="E9" s="15">
         <v>57561381803</v>
       </c>
       <c r="N9" s="13">

--- a/src/main/java/algestudiante/p32/P32_UO277876.xlsx
+++ b/src/main/java/algestudiante/p32/P32_UO277876.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infer\git\alg_AunonAndreaUO277876\src\main\java\algestudiante\p32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD369EC-26F4-404F-BD1D-A33A9EBCE6E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC834D2E-4A86-4EB1-8FAE-2467D8F2551F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10356" yWindow="1188" windowWidth="10764" windowHeight="9480" xr2:uid="{760BF4A0-4F21-48FC-9449-0A68ABD67C67}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{760BF4A0-4F21-48FC-9449-0A68ABD67C67}"/>
   </bookViews>
   <sheets>
-    <sheet name="División" sheetId="5" r:id="rId1"/>
+    <sheet name="Inversiones" sheetId="5" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>nVeces</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Mediciones realizadas en:</t>
   </si>
@@ -51,12 +51,6 @@
     <t>fichero</t>
   </si>
   <si>
-    <t>t(O(n2)</t>
-  </si>
-  <si>
-    <t>tO(nlogn)</t>
-  </si>
-  <si>
     <t>tO(n^2)/t(O(nlogn)</t>
   </si>
   <si>
@@ -65,12 +59,36 @@
   <si>
     <t>Ranking1.txt</t>
   </si>
+  <si>
+    <t>Ranking2.txt</t>
+  </si>
+  <si>
+    <t>Ranking3.txt</t>
+  </si>
+  <si>
+    <t>Ranking7.txt</t>
+  </si>
+  <si>
+    <t>Ranking4.txt</t>
+  </si>
+  <si>
+    <t>Ranking5.txt</t>
+  </si>
+  <si>
+    <t>Ranking6.txt</t>
+  </si>
+  <si>
+    <t>t(O(n2) (ms)</t>
+  </si>
+  <si>
+    <t>tO(nlogn) (ms)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,13 +100,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -141,21 +152,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -244,35 +240,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -290,6 +321,1088 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>tO(n^2)/t(O(nlogn)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Inversiones!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tO(n^2)/t(O(nlogn)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Inversiones!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.7647058823529411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.283333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.695999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>245.40182648401827</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>438.74954954954956</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>497.50185873605949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD5F-4A37-89F4-7771A46744E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1502135087"/>
+        <c:axId val="1502137999"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1502135087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1502137999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1502137999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1502135087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>621030</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94116D9C-371A-42F1-9174-A14BEFEBB7C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="División"/>
+      <sheetName val="Sustracción"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>t(sustracción1)</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>1</v>
+          </cell>
+          <cell r="C3">
+            <v>8.9999999999999999E-8</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>2</v>
+          </cell>
+          <cell r="C4">
+            <v>5.1159999999999998E-6</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>4</v>
+          </cell>
+          <cell r="C5">
+            <v>1.2503E-5</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>8</v>
+          </cell>
+          <cell r="C6">
+            <v>2.8138999999999999E-5</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>16</v>
+          </cell>
+          <cell r="C7">
+            <v>5.6745E-5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>32</v>
+          </cell>
+          <cell r="C8">
+            <v>1.1825299999999999E-4</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>64</v>
+          </cell>
+          <cell r="C9">
+            <v>1.3857999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>128</v>
+          </cell>
+          <cell r="C10">
+            <v>2.6158000000000003E-4</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>256</v>
+          </cell>
+          <cell r="C11">
+            <v>5.6185000000000002E-4</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>512</v>
+          </cell>
+          <cell r="C12">
+            <v>1.0606299999999999E-3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>1024</v>
+          </cell>
+          <cell r="C13">
+            <v>4.2931000000000002E-3</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>2048</v>
+          </cell>
+          <cell r="C14">
+            <v>9.4696999999999993E-3</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>4098</v>
+          </cell>
+          <cell r="C15">
+            <v>1.9399E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>8192</v>
+          </cell>
+          <cell r="C16">
+            <v>3.9403000000000001E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>16384</v>
+          </cell>
+          <cell r="C17">
+            <v>7.986E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>32768</v>
+          </cell>
+          <cell r="C18">
+            <v>0.16129099999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -589,131 +1702,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50AC779-C55D-4822-8A6D-58AA05F2A758}">
-  <dimension ref="A2:N12"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="19.77734375" customWidth="1"/>
     <col min="6" max="6" width="19.21875" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="B3" s="16">
+        <v>196</v>
+      </c>
+      <c r="C3" s="16">
+        <v>34</v>
+      </c>
+      <c r="D3" s="16">
+        <f>B3/C3</f>
+        <v>5.7647058823529411</v>
+      </c>
+      <c r="E3" s="14">
+        <v>14074466</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="B4" s="16">
+        <v>440</v>
+      </c>
+      <c r="C4" s="16">
+        <v>70</v>
+      </c>
+      <c r="D4" s="16">
+        <f t="shared" ref="D4:D9" si="0">B4/C4</f>
+        <v>6.2857142857142856</v>
+      </c>
+      <c r="E4" s="14">
+        <v>56256142</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="N2" s="1" t="s">
-        <v>0</v>
+      <c r="B5" s="16">
+        <v>1457</v>
+      </c>
+      <c r="C5" s="16">
+        <v>60</v>
+      </c>
+      <c r="D5" s="16">
+        <f t="shared" si="0"/>
+        <v>24.283333333333335</v>
+      </c>
+      <c r="E5" s="14">
+        <v>225312650</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="16">
+        <v>8212</v>
+      </c>
+      <c r="C6" s="16">
+        <v>125</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" si="0"/>
+        <v>65.695999999999998</v>
+      </c>
+      <c r="E6" s="14">
+        <v>903869574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="16">
+        <v>53743</v>
+      </c>
+      <c r="C7" s="16">
+        <v>219</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" si="0"/>
+        <v>245.40182648401827</v>
+      </c>
+      <c r="E7" s="14">
+        <v>3613758061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="17">
+        <v>243506</v>
+      </c>
+      <c r="C8" s="16">
+        <v>555</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" si="0"/>
+        <v>438.74954954954956</v>
+      </c>
+      <c r="E8" s="14">
+        <v>14444260441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="15">
-        <v>14074466</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="N3" s="2">
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E4" s="15">
-        <v>56256142</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="N4" s="2">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E5" s="15">
-        <v>225312650</v>
-      </c>
-      <c r="N5" s="2">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E6" s="15">
-        <v>903869574</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E7" s="15">
-        <v>3613758061</v>
-      </c>
-      <c r="N7" s="3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E8" s="15">
-        <v>14444260441</v>
-      </c>
-      <c r="N8" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="18">
+        <v>535312</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1076</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>497.50185873605949</v>
+      </c>
       <c r="E9" s="15">
         <v>57561381803</v>
-      </c>
-      <c r="N9" s="13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N10" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N11" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N12" s="13">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/java/algestudiante/p32/P32_UO277876.xlsx
+++ b/src/main/java/algestudiante/p32/P32_UO277876.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infer\git\alg_AunonAndreaUO277876\src\main\java\algestudiante\p32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC834D2E-4A86-4EB1-8FAE-2467D8F2551F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460F1178-C294-4A8F-B5D3-9DF5103FC748}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{760BF4A0-4F21-48FC-9449-0A68ABD67C67}"/>
   </bookViews>
   <sheets>
     <sheet name="Inversiones" sheetId="5" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -78,10 +75,10 @@
     <t>Ranking6.txt</t>
   </si>
   <si>
-    <t>t(O(n2) (ms)</t>
+    <t>t(O(n2) (ms))</t>
   </si>
   <si>
-    <t>tO(nlogn) (ms)</t>
+    <t>tO(nlogn) (ms))</t>
   </si>
 </sst>
 </file>
@@ -1221,14 +1218,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>621030</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1254,155 +1251,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="División"/>
-      <sheetName val="Sustracción"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>t(sustracción1)</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>1</v>
-          </cell>
-          <cell r="C3">
-            <v>8.9999999999999999E-8</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>2</v>
-          </cell>
-          <cell r="C4">
-            <v>5.1159999999999998E-6</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>4</v>
-          </cell>
-          <cell r="C5">
-            <v>1.2503E-5</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>8</v>
-          </cell>
-          <cell r="C6">
-            <v>2.8138999999999999E-5</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>16</v>
-          </cell>
-          <cell r="C7">
-            <v>5.6745E-5</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>32</v>
-          </cell>
-          <cell r="C8">
-            <v>1.1825299999999999E-4</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>64</v>
-          </cell>
-          <cell r="C9">
-            <v>1.3857999999999999E-4</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>128</v>
-          </cell>
-          <cell r="C10">
-            <v>2.6158000000000003E-4</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>256</v>
-          </cell>
-          <cell r="C11">
-            <v>5.6185000000000002E-4</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>512</v>
-          </cell>
-          <cell r="C12">
-            <v>1.0606299999999999E-3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>1024</v>
-          </cell>
-          <cell r="C13">
-            <v>4.2931000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>2048</v>
-          </cell>
-          <cell r="C14">
-            <v>9.4696999999999993E-3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>4098</v>
-          </cell>
-          <cell r="C15">
-            <v>1.9399E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>8192</v>
-          </cell>
-          <cell r="C16">
-            <v>3.9403000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>16384</v>
-          </cell>
-          <cell r="C17">
-            <v>7.986E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>32768</v>
-          </cell>
-          <cell r="C18">
-            <v>0.16129099999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1705,14 +1553,14 @@
   <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
     <col min="4" max="4" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="19.77734375" customWidth="1"/>
     <col min="6" max="6" width="19.21875" customWidth="1"/>
